--- a/mtg_collection.xlsx
+++ b/mtg_collection.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5355" yWindow="3150" windowWidth="28800" windowHeight="15345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12105" yWindow="8580" windowWidth="26265" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -32,7 +34,10 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,20 +72,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -427,117 +442,1815 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="23.42578125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="12.7109375" bestFit="1" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Run</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Set</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Set #</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total Price</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Last Updated</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>TOTAL VALUE</t>
+        </is>
+      </c>
+      <c r="J1" t="n">
+        <v>217.38</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="b">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Black Lotus</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>lea</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
+      <c r="D2" t="n">
+        <v/>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Mox Sapphire</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="D3" t="n">
+        <v/>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Jace, the Mind Sculptor</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="D4" t="n">
+        <v/>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="b">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Ugin, the Spirit Dragon</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="D5" t="n">
+        <v/>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Bog Badger</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Thoughtseize</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="D7" t="n">
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34.24</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Black Sun's Twilight</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="b">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Abandoned Sarcophagus</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="b">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Academy Manufactor</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Accorder's Shield</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v/>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="b">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Acorn Catapult</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Adventuring Gear</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Aetherflux Reservoir</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="G14" t="n">
+        <v>26.08</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Aethersphere Harvester</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aetherworks Marvel</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Akroan Horse</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v/>
+      </c>
+      <c r="D17" t="n">
+        <v/>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Alchemist's Vial</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v/>
+      </c>
+      <c r="D18" t="n">
+        <v/>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Alhammarret's Archive</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v/>
+      </c>
+      <c r="D19" t="n">
+        <v/>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="G19" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Aligned Hedron Network</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v/>
+      </c>
+      <c r="D20" t="n">
+        <v/>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>All Is Dust</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v/>
+      </c>
+      <c r="D21" t="n">
+        <v/>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Alloy Myr</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v/>
+      </c>
+      <c r="D22" t="n">
+        <v/>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="b">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Altar of Dementia</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v/>
+      </c>
+      <c r="D23" t="n">
+        <v/>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="b">
+        <v>0</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Altar of the Brood</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v/>
+      </c>
+      <c r="D24" t="n">
+        <v/>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="G24" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Altar of the Goyf</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v/>
+      </c>
+      <c r="D25" t="n">
+        <v/>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Altar of the Pantheon</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v/>
+      </c>
+      <c r="D26" t="n">
+        <v/>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Amaranthine Wall</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v/>
+      </c>
+      <c r="D27" t="n">
+        <v/>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Amorphous Axe</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v/>
+      </c>
+      <c r="D28" t="n">
+        <v/>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ancestral Statue</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v/>
+      </c>
+      <c r="D29" t="n">
+        <v/>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ancient Stone Idol</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v/>
+      </c>
+      <c r="D30" t="n">
+        <v/>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Animation Module</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v/>
+      </c>
+      <c r="D31" t="n">
+        <v/>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ankh of Mishra</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v/>
+      </c>
+      <c r="D32" t="n">
+        <v/>
+      </c>
+      <c r="E32" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="b">
+        <v>0</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Aradara Express</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v/>
+      </c>
+      <c r="D33" t="n">
+        <v/>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="b">
+        <v>0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Arcane Signet</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v/>
+      </c>
+      <c r="D34" t="n">
+        <v/>
+      </c>
+      <c r="E34" t="n">
+        <v>11</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="b">
+        <v>0</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Arcbound Bruiser</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v/>
+      </c>
+      <c r="D35" t="n">
+        <v/>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="b">
+        <v>0</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Arcbound Hybrid</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v/>
+      </c>
+      <c r="D36" t="n">
+        <v/>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Arcbound Slith</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v/>
+      </c>
+      <c r="D37" t="n">
+        <v/>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="b">
+        <v>0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Arcbound Stinger</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v/>
+      </c>
+      <c r="D38" t="n">
+        <v/>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="b">
+        <v>0</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Arcbound Worker</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v/>
+      </c>
+      <c r="D39" t="n">
+        <v/>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="b">
+        <v>0</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Arcum's Astrolabe</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v/>
+      </c>
+      <c r="D40" t="n">
+        <v/>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="b">
+        <v>0</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Argentum Armor</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v/>
+      </c>
+      <c r="D41" t="n">
+        <v/>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Argentum Masticore</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v/>
+      </c>
+      <c r="D42" t="n">
+        <v/>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="b">
+        <v>0</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Armillary Sphere</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v/>
+      </c>
+      <c r="D43" t="n">
+        <v/>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Artisan of Kozilek</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v/>
+      </c>
+      <c r="D44" t="n">
+        <v/>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="b">
+        <v>0</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Ashnod's Altar</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v/>
+      </c>
+      <c r="D45" t="n">
+        <v/>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="b">
+        <v>0</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ashnod's Transmogrant</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v/>
+      </c>
+      <c r="D46" t="n">
+        <v/>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="b">
+        <v>0</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Assault Suit</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v/>
+      </c>
+      <c r="D47" t="n">
+        <v/>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="b">
+        <v>0</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Assembly-Worker</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v/>
+      </c>
+      <c r="D48" t="n">
+        <v/>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="b">
+        <v>0</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Astral Cornucopia</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v/>
+      </c>
+      <c r="D49" t="n">
+        <v/>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="b">
+        <v>0</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Atraxa's Skitterfang</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v/>
+      </c>
+      <c r="D50" t="n">
+        <v/>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="b">
+        <v>0</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Automated Artificer</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v/>
+      </c>
+      <c r="D51" t="n">
+        <v/>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="b">
+        <v>0</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Avacyn's Collar</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v/>
+      </c>
+      <c r="D52" t="n">
+        <v/>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="b">
+        <v>0</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Avarice Amulet</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v/>
+      </c>
+      <c r="D53" t="n">
+        <v/>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="b">
+        <v>0</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Azor's Gateway</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v/>
+      </c>
+      <c r="D54" t="n">
+        <v/>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="b">
+        <v>0</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Bag of Holding</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v/>
+      </c>
+      <c r="D55" t="n">
+        <v/>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="b">
+        <v>0</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Ballista Charger</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v/>
+      </c>
+      <c r="D56" t="n">
+        <v/>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="b">
+        <v>0</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Bane of Bala Ged</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v/>
+      </c>
+      <c r="D57" t="n">
+        <v/>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="G57" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="b">
+        <v>0</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Barkform Harvester</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v/>
+      </c>
+      <c r="D58" t="n">
+        <v/>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="b">
+        <v>0</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Barricade Breaker</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v/>
+      </c>
+      <c r="D59" t="n">
+        <v/>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>02/17/2025</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -556,12 +2269,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
@@ -573,7 +2286,6 @@
           <t>Black Lotus</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -581,7 +2293,6 @@
           <t>Mox Sapphire</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
